--- a/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_MPQA.xlsx
+++ b/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_MPQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diardano Raihan\Documents\My Life\AI\Portofolio\Text_Classification_Capstone\3_WordEmbedding_Models\Word2Vec\1_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADC1EA3-5C00-4F58-A018-F5250D7F0141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2B17BD-4A2B-4E45-BFDF-D3286BC28FC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,12 +90,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,16 +131,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A847C85D-390E-46F4-949B-4173905D4F5D}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D68EC56-DE9C-49E6-A4B5-3631E8AFC5D4}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1094,37 +1101,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>87841660</v>
+        <v>89443922</v>
       </c>
       <c r="E2" s="2">
-        <v>88312912</v>
+        <v>88501412</v>
       </c>
       <c r="F2" s="2">
-        <v>86522150</v>
+        <v>90480679</v>
       </c>
       <c r="G2" s="2">
-        <v>87558907</v>
+        <v>89255422</v>
       </c>
       <c r="H2" s="2">
-        <v>85485393</v>
+        <v>87464654</v>
       </c>
       <c r="I2" s="2">
-        <v>88878417</v>
+        <v>89443922</v>
       </c>
       <c r="J2" s="2">
-        <v>85471696</v>
+        <v>89150941</v>
       </c>
       <c r="K2" s="2">
-        <v>87358493</v>
+        <v>87830186</v>
       </c>
       <c r="L2" s="2">
-        <v>87641507</v>
+        <v>87547171</v>
       </c>
       <c r="M2" s="2">
-        <v>88962263</v>
+        <v>86698115</v>
       </c>
       <c r="N2" s="2">
-        <v>87.40334</v>
+        <v>88.581643</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1138,125 +1145,125 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>86239398</v>
+        <v>88407165</v>
       </c>
       <c r="E3" s="2">
-        <v>85485393</v>
+        <v>88878417</v>
       </c>
       <c r="F3" s="2">
-        <v>86145145</v>
+        <v>87935907</v>
       </c>
       <c r="G3" s="2">
-        <v>88124412</v>
+        <v>88407165</v>
       </c>
       <c r="H3" s="2">
         <v>87370408</v>
       </c>
       <c r="I3" s="2">
-        <v>81526864</v>
+        <v>87087655</v>
       </c>
       <c r="J3" s="2">
-        <v>85754716</v>
+        <v>89433962</v>
       </c>
       <c r="K3" s="2">
-        <v>88679248</v>
+        <v>88773584</v>
       </c>
       <c r="L3" s="2">
-        <v>81698114</v>
+        <v>87830186</v>
       </c>
       <c r="M3" s="2">
-        <v>88018870</v>
+        <v>89999998</v>
       </c>
       <c r="N3" s="2">
-        <v>85.904257000000001</v>
+        <v>88.412445000000005</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>85862392</v>
+        <v>87370408</v>
       </c>
       <c r="E4" s="2">
-        <v>86050898</v>
+        <v>88407165</v>
       </c>
       <c r="F4" s="2">
-        <v>87558907</v>
+        <v>86899149</v>
       </c>
       <c r="G4" s="2">
-        <v>85485393</v>
+        <v>88689917</v>
       </c>
       <c r="H4" s="2">
-        <v>86050898</v>
+        <v>90386426</v>
       </c>
       <c r="I4" s="2">
-        <v>88689917</v>
+        <v>89161170</v>
       </c>
       <c r="J4" s="2">
-        <v>85660380</v>
+        <v>88207549</v>
       </c>
       <c r="K4" s="2">
-        <v>82547170</v>
+        <v>87075472</v>
       </c>
       <c r="L4" s="2">
-        <v>86509436</v>
+        <v>89245284</v>
       </c>
       <c r="M4" s="2">
-        <v>84622639</v>
+        <v>86886793</v>
       </c>
       <c r="N4" s="2">
-        <v>85.903802999999996</v>
+        <v>88.232933000000003</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
       <c r="D5" s="2">
-        <v>86050898</v>
+        <v>87747407</v>
       </c>
       <c r="E5" s="2">
-        <v>82280868</v>
+        <v>87841660</v>
       </c>
       <c r="F5" s="2">
-        <v>85673892</v>
+        <v>88218659</v>
       </c>
       <c r="G5" s="2">
-        <v>85673892</v>
+        <v>86804903</v>
       </c>
       <c r="H5" s="2">
-        <v>84354383</v>
+        <v>87935907</v>
       </c>
       <c r="I5" s="2">
-        <v>83129126</v>
+        <v>87935907</v>
       </c>
       <c r="J5" s="2">
-        <v>85377359</v>
+        <v>89999998</v>
       </c>
       <c r="K5" s="2">
-        <v>85377359</v>
+        <v>87735850</v>
       </c>
       <c r="L5" s="2">
+        <v>87358493</v>
+      </c>
+      <c r="M5" s="2">
         <v>87452829</v>
       </c>
-      <c r="M5" s="2">
-        <v>85000002</v>
-      </c>
       <c r="N5" s="2">
-        <v>85.037060999999994</v>
+        <v>87.903160999999997</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1270,81 +1277,81 @@
         <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>84260130</v>
+        <v>88030159</v>
       </c>
       <c r="E6" s="2">
-        <v>80772853</v>
+        <v>89066917</v>
       </c>
       <c r="F6" s="2">
-        <v>86050898</v>
+        <v>86899149</v>
       </c>
       <c r="G6" s="2">
-        <v>86522150</v>
+        <v>87087655</v>
       </c>
       <c r="H6" s="2">
-        <v>85296887</v>
+        <v>87558907</v>
       </c>
       <c r="I6" s="2">
-        <v>83788878</v>
+        <v>88784164</v>
       </c>
       <c r="J6" s="2">
-        <v>85000002</v>
+        <v>85849059</v>
       </c>
       <c r="K6" s="2">
-        <v>85188681</v>
+        <v>87358493</v>
       </c>
       <c r="L6" s="2">
-        <v>85188681</v>
+        <v>88396227</v>
       </c>
       <c r="M6" s="2">
-        <v>88018870</v>
+        <v>88301885</v>
       </c>
       <c r="N6" s="2">
-        <v>85.008803</v>
+        <v>87.733261999999996</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>81526864</v>
+        <v>87558907</v>
       </c>
       <c r="E7" s="2">
-        <v>87370408</v>
+        <v>88595665</v>
       </c>
       <c r="F7" s="2">
         <v>88124412</v>
       </c>
       <c r="G7" s="2">
-        <v>84448636</v>
+        <v>88595665</v>
       </c>
       <c r="H7" s="2">
-        <v>81809616</v>
+        <v>85296887</v>
       </c>
       <c r="I7" s="2">
-        <v>83977377</v>
+        <v>88218659</v>
       </c>
       <c r="J7" s="2">
-        <v>76415092</v>
+        <v>86037737</v>
       </c>
       <c r="K7" s="2">
-        <v>87735850</v>
+        <v>88018870</v>
       </c>
       <c r="L7" s="2">
-        <v>83867925</v>
+        <v>87358493</v>
       </c>
       <c r="M7" s="2">
-        <v>86320752</v>
+        <v>87547171</v>
       </c>
       <c r="N7" s="2">
-        <v>84.159693000000004</v>
+        <v>87.535246999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1358,85 +1365,86 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>85391140</v>
+        <v>87935907</v>
       </c>
       <c r="E8" s="2">
-        <v>85579640</v>
+        <v>86899149</v>
       </c>
       <c r="F8" s="2">
-        <v>86899149</v>
+        <v>87181902</v>
       </c>
       <c r="G8" s="2">
-        <v>85296887</v>
+        <v>87181902</v>
       </c>
       <c r="H8" s="2">
-        <v>78322339</v>
+        <v>88878417</v>
       </c>
       <c r="I8" s="2">
-        <v>86993402</v>
+        <v>87841660</v>
       </c>
       <c r="J8" s="2">
-        <v>86603773</v>
+        <v>89150941</v>
       </c>
       <c r="K8" s="2">
-        <v>75849056</v>
+        <v>86509436</v>
       </c>
       <c r="L8" s="2">
-        <v>76792455</v>
+        <v>85471696</v>
       </c>
       <c r="M8" s="2">
-        <v>85283017</v>
+        <v>87641507</v>
       </c>
       <c r="N8" s="2">
-        <v>83.301085999999998</v>
+        <v>87.469251999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>77568334</v>
+        <v>67766261</v>
       </c>
       <c r="E9" s="2">
-        <v>78133833</v>
+        <v>87181902</v>
       </c>
       <c r="F9" s="2">
-        <v>84260130</v>
+        <v>90009427</v>
       </c>
       <c r="G9" s="2">
-        <v>80490106</v>
+        <v>87747407</v>
       </c>
       <c r="H9" s="2">
-        <v>85956645</v>
+        <v>86239398</v>
       </c>
       <c r="I9" s="2">
-        <v>86710650</v>
+        <v>89349669</v>
       </c>
       <c r="J9" s="2">
-        <v>86509436</v>
+        <v>88490564</v>
       </c>
       <c r="K9" s="2">
-        <v>83867925</v>
+        <v>86981130</v>
       </c>
       <c r="L9" s="2">
-        <v>77735847</v>
+        <v>88962263</v>
       </c>
       <c r="M9" s="2">
-        <v>85660380</v>
+        <v>88207549</v>
       </c>
       <c r="N9" s="2">
-        <v>82.689329000000001</v>
+        <v>86.093557000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1444,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1502,40 +1510,40 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
         <v>82.469367980957031</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>87.841659784317017</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>87.181901931762695</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>87.464654445648193</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>86.710649728775024</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>86.050897836685181</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>86.037737131118774</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>82.169812917709351</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="5">
         <v>87.264150381088257</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="5">
         <v>83.396226167678833</v>
       </c>
       <c r="N2" s="2">
-        <v>85.658705830574036</v>
+        <v>87.450509999999994</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1548,38 +1556,38 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>87.935906648635864</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>87.747406959533691</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>78.793591260910034</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>86.899149417877197</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>83.129125833511353</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>85.956645011901855</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>85.849058628082275</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>86.132073402404785</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>87.264150381088257</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>86.603772640228271</v>
       </c>
       <c r="N3" s="2">
-        <v>85.631088018417358</v>
+        <v>87.337356</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1590,40 +1598,40 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>87.370407581329346</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>87.841659784317017</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>78.228086233139038</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>88.218659162521362</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>81.621110439300537</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>87.370407581329346</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>85.566037893295288</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>86.226415634155273</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>87.169814109802246</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>85.660380125045776</v>
       </c>
       <c r="N4" s="2">
-        <v>85.527297854423523</v>
+        <v>87.318540999999996</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1634,40 +1642,40 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
         <v>81.99811577796936</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>86.239397525787354</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>83.317625522613525</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>86.427897214889526</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>88.312911987304688</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>87.653160095214844</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>81.226414442062378</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>87.735849618911743</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>87.169814109802246</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>85.000002384185791</v>
       </c>
       <c r="N5" s="2">
-        <v>85.508118867874146</v>
+        <v>87.092267000000007</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1678,40 +1686,40 @@
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
         <v>87.181901931762695</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>80.207353830337524</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>88.124412298202515</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>81.809616088867188</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>87.841659784317017</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>82.752120494842529</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>85.660380125045776</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>87.264150381088257</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <v>81.415092945098877</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>86.69811487197876</v>
       </c>
       <c r="N6" s="2">
-        <v>84.895480275154114</v>
+        <v>87.054567000000006</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1724,38 +1732,38 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>81.432610750198364</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>87.841659784317017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>81.244111061096191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>81.432610750198364</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>86.616396903991699</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>85.579639673233032</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>86.226415634155273</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>85.849058628082275</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <v>86.792451143264771</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <v>85.660380125045776</v>
       </c>
       <c r="N7" s="2">
-        <v>84.867533445358276</v>
+        <v>86.828232</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1766,40 +1774,40 @@
         <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5">
         <v>85.485392808914185</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>75.30631422996521</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>83.788877725601196</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>86.80490255355835</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>88.689917325973511</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>83.694624900817871</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>80.943393707275391</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <v>85.754716396331787</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="5">
         <v>84.528303146362305</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5">
         <v>87.075471878051758</v>
       </c>
       <c r="N8" s="2">
-        <v>84.207191467285156</v>
+        <v>86.809409000000002</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1812,38 +1820,38 @@
       <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>80.58435320854187</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>87.087655067443848</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>85.296887159347534</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>80.58435320854187</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>81.526863574981689</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>83.2233726978302</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>83.67924690246582</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>83.018869161605835</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>81.415092945098877</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <v>82.45282769203186</v>
       </c>
       <c r="N9" s="2">
-        <v>82.88695216178894</v>
+        <v>86.366180999999997</v>
       </c>
     </row>
   </sheetData>
